--- a/Hertz200/Documents/Hert200_Parameters.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>MCU/CHIPSET</t>
   </si>
@@ -25,35 +25,93 @@
     <t>OPERATING VOLTAGE (V)</t>
   </si>
   <si>
+    <t>INTERFACE</t>
+  </si>
+  <si>
+    <t>CURRENT (mA)</t>
+  </si>
+  <si>
+    <t>POWER (W)</t>
+  </si>
+  <si>
+    <t>SLEEP MODE(uA)</t>
+  </si>
+  <si>
     <t>STM32L431CC</t>
   </si>
   <si>
     <t>PROCESSOR</t>
   </si>
   <si>
+    <t>USART</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
     <t>SIM7020E</t>
   </si>
   <si>
     <t xml:space="preserve">NB-IOT CELLULAR </t>
   </si>
   <si>
+    <t>UART</t>
+  </si>
+  <si>
     <t>SIM68M</t>
   </si>
   <si>
     <t>GNSS/GPS</t>
+  </si>
+  <si>
+    <t>HT221 TEMP/HUMIDITY</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>BQ24195RGER</t>
+  </si>
+  <si>
+    <t>BATTERY IC</t>
+  </si>
+  <si>
+    <t>6-24</t>
+  </si>
+  <si>
+    <t>3A MAX</t>
+  </si>
+  <si>
+    <t>MCU TOTAL CRT/PWR</t>
+  </si>
+  <si>
+    <t>BATTERY</t>
+  </si>
+  <si>
+    <t>LITHIUM ION</t>
+  </si>
+  <si>
+    <t>3.8 X 2</t>
+  </si>
+  <si>
+    <t>(5-10)AH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,62 +128,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,8 +144,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,61 +257,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,26 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +526,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,154 +575,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,20 +1044,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
+    <row r="1" ht="18.75" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,35 +1071,157 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>3.3</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>0.462</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>3.3</v>
       </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>800</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>970</v>
+      </c>
+      <c r="F16">
+        <v>3.202</v>
+      </c>
+      <c r="G16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Hertz200/Documents/Hert200_Parameters.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>MCU/CHIPSET</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>MCU TOTAL CRT/PWR</t>
+  </si>
+  <si>
+    <t>SN74LXC2T45DTMR</t>
+  </si>
+  <si>
+    <t>Volatge Level Shifter</t>
   </si>
   <si>
     <t>BATTERY</t>
@@ -105,11 +111,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,6 +134,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -137,28 +220,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -167,106 +236,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +287,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,25 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,109 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +478,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,47 +538,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,21 +572,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,137 +599,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,13 +1053,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
@@ -1210,18 +1216,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="20" ht="18.75" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Hertz200/Documents/Hert200_Parameters.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters.xlsx
@@ -88,7 +88,7 @@
     <t>MCU TOTAL CRT/PWR</t>
   </si>
   <si>
-    <t>SN74LXC2T45DTMR</t>
+    <t>TXB0102DCUT</t>
   </si>
   <si>
     <t>Volatge Level Shifter</t>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="21">
@@ -143,14 +143,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,30 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,18 +233,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,22 +265,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,35 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,25 +287,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,151 +413,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,16 +482,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +546,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -556,16 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,156 +573,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/Hertz200/Documents/Hert200_Parameters.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>MCU/CHIPSET</t>
   </si>
@@ -104,23 +105,189 @@
   </si>
   <si>
     <t>(5-10)AH</t>
+  </si>
+  <si>
+    <t>CAPACITORS</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>0.1uF/50V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C104K5RAC3121 </t>
+  </si>
+  <si>
+    <t>1uF/50V</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGA3E3X5R1H105K080AB </t>
+  </si>
+  <si>
+    <t>PART NO.</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>VOLTAGE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>PRICE $</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>for power and other function</t>
+  </si>
+  <si>
+    <t>C0603C103K5RAC7013</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>STM32 L4 VDDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1608X5R1H105K080AB </t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0402C220J5GACAUTO </t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>SIM7020E VDD</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0402C101J5GACAUTO </t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>50v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T491X107K025AT </t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>25v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0603C220J5GAC7867 </t>
+  </si>
+  <si>
+    <t>SIM7020E SIM SLOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1608X6S1A475K080AC </t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>SIM68 POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCM1885C1H102FA16D </t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>PMIC</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1H473K080AA</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRM188R61E106KA73J </t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+150080RS75000</t>
+  </si>
+  <si>
+    <t>2V</t>
+  </si>
+  <si>
+    <t>led</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,6 +309,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -151,6 +334,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,71 +408,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,38 +425,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +454,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,163 +634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,15 +683,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,11 +704,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,24 +728,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,138 +766,154 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1062,31 +1245,31 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="27.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1109,7 +1292,7 @@
       <c r="F3">
         <v>0.462</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>0.3</v>
       </c>
     </row>
@@ -1139,10 +1322,10 @@
       <c r="E7">
         <v>800</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
         <v>2.64</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <v>3.4</v>
       </c>
     </row>
@@ -1162,10 +1345,10 @@
       <c r="E9">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
         <v>0.1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="9">
         <v>14</v>
       </c>
     </row>
@@ -1192,7 +1375,7 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
@@ -1212,7 +1395,7 @@
       <c r="F16">
         <v>3.202</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="9">
         <v>18</v>
       </c>
     </row>
@@ -1225,7 +1408,7 @@
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
@@ -1236,10 +1419,346 @@
       </c>
       <c r="E20" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>603</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="24.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="28.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="30" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>805</v>
+      </c>
+      <c r="F18">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Hertz200/Documents/Hert200_Parameters.xlsx
+++ b/Hertz200/Documents/Hert200_Parameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>MCU/CHIPSET</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>led</t>
+  </si>
+  <si>
+    <t>BAT54C</t>
+  </si>
+  <si>
+    <t>SOT 23</t>
   </si>
 </sst>
 </file>
@@ -301,6 +307,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -309,6 +344,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -318,73 +384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -408,6 +407,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -416,6 +429,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,21 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +460,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -466,49 +574,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,121 +628,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,30 +651,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,6 +669,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -698,6 +689,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,6 +734,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -736,19 +751,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,130 +772,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,7 +1242,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1458,10 +1464,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1752,6 +1758,17 @@
         <v>0.19</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20">
+        <v>0.43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
